--- a/___Cost_Analysis-Notas___/Parcial_02/Parcial_02-DavidCorzo.xlsx
+++ b/___Cost_Analysis-Notas___/Parcial_02/Parcial_02-DavidCorzo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___UFM-Cursos___\3_Semestre-[Enero-Mayo-2020]\____SumaDeCursosUFM2.1____\___Cost_Analysis-Notas___\Parcial_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB10FDD-7859-4191-920F-4F2BD19BA3C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85269E1C-87CB-483E-A288-16950096900D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Presupuestos" sheetId="1" r:id="rId1"/>
@@ -1295,6 +1295,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1316,21 +1318,45 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1340,6 +1366,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1349,62 +1405,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1687,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="94" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="94" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1875,7 +1875,7 @@
       <c r="A28" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="108">
+      <c r="B28" s="78">
         <f>ROUNDUP(B23,0)</f>
         <v>44400</v>
       </c>
@@ -2277,10 +2277,10 @@
     </row>
     <row r="83" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="84" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A84" s="78" t="s">
+      <c r="A84" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="B84" s="79"/>
+      <c r="B84" s="81"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
@@ -2393,13 +2393,13 @@
   <dimension ref="B1:M66"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="86" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
     <col min="4" max="4" width="21.140625" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
@@ -2411,10 +2411,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="81"/>
+      <c r="C1" s="83"/>
       <c r="D1" s="72"/>
       <c r="E1" s="52"/>
       <c r="F1" s="52"/>
@@ -2422,16 +2422,16 @@
       <c r="H1" s="17"/>
     </row>
     <row r="2" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="82"/>
-      <c r="C2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="85"/>
       <c r="D2" s="72"/>
       <c r="E2" s="52"/>
-      <c r="F2" s="109" t="s">
+      <c r="F2" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="113"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="88"/>
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
       <c r="L2" s="50"/>
@@ -2441,10 +2441,10 @@
       <c r="C3" s="2"/>
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="114"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="90"/>
       <c r="J3" s="50"/>
       <c r="K3" s="50"/>
       <c r="L3" s="50"/>
@@ -2560,7 +2560,7 @@
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="84"/>
+      <c r="M9" s="86"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
@@ -2587,7 +2587,7 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
-      <c r="M10" s="84"/>
+      <c r="M10" s="86"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
@@ -2606,7 +2606,7 @@
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
-      <c r="M11" s="84"/>
+      <c r="M11" s="86"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
@@ -2627,7 +2627,7 @@
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
-      <c r="M12" s="84"/>
+      <c r="M12" s="86"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
@@ -2641,7 +2641,7 @@
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
-      <c r="M13" s="84"/>
+      <c r="M13" s="86"/>
     </row>
     <row r="14" spans="2:13" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="20" t="s">
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="48">
-        <f t="shared" ref="H17:L17" si="0">SUM(H10:H16)</f>
+        <f t="shared" ref="H17:I17" si="0">SUM(H10:H16)</f>
         <v>0</v>
       </c>
       <c r="I17" s="48">
@@ -2757,10 +2757,10 @@
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="35"/>
-      <c r="F20" s="109" t="s">
+      <c r="F20" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="113"/>
+      <c r="G20" s="88"/>
       <c r="H20" s="50"/>
       <c r="I20" s="50"/>
     </row>
@@ -2774,8 +2774,8 @@
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="35"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="114"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="90"/>
       <c r="H21" s="50"/>
       <c r="I21" s="50"/>
     </row>
@@ -2942,8 +2942,8 @@
         <f>SUM(G27:G29)</f>
         <v>9980000</v>
       </c>
-      <c r="H31" s="115"/>
-      <c r="I31" s="115"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
     </row>
     <row r="32" spans="2:12" ht="21" x14ac:dyDescent="0.35">
       <c r="B32" s="60"/>
@@ -3117,7 +3117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B48C4A7-1F91-4E4B-ACCC-985CD571AEAD}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F46" sqref="F46:H46"/>
     </sheetView>
   </sheetViews>
@@ -3134,62 +3134,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="95"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="115"/>
       <c r="I1" s="27"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="100" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="92"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="102"/>
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98" t="s">
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="100"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="107"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="103" t="s">
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="105"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="110"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -3288,12 +3288,12 @@
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="103" t="s">
+      <c r="E10" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="105"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="110"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -3306,18 +3306,18 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="87" t="s">
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="89"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="97"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -3419,21 +3419,21 @@
       <c r="A19" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="85">
+      <c r="B19" s="98">
         <f>D8+D18</f>
         <v>4999370</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
       <c r="E19" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="106">
+      <c r="F19" s="111">
         <f>H9+H11+H18</f>
         <v>4999370</v>
       </c>
-      <c r="G19" s="106"/>
-      <c r="H19" s="107"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="112"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D21" s="36"/>
@@ -3449,56 +3449,56 @@
       <c r="H22" s="35"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="93" t="s">
+      <c r="A23" s="113" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="95"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="115"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="90" t="s">
+      <c r="A24" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="92"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="102"/>
     </row>
     <row r="25" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="96" t="s">
+      <c r="A25" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="97"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="98" t="s">
+      <c r="B25" s="104"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="100"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="107"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="101" t="s">
+      <c r="A26" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="102"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="103" t="s">
+      <c r="B26" s="94"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="105"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="110"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -3599,12 +3599,12 @@
       <c r="B33" s="71"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="103" t="s">
+      <c r="E33" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="105"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="110"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
@@ -3652,18 +3652,18 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="101" t="s">
+      <c r="A38" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="102"/>
-      <c r="C38" s="102"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="87" t="s">
+      <c r="B38" s="94"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="94"/>
+      <c r="E38" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="89"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="97"/>
     </row>
     <row r="39" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -3793,21 +3793,21 @@
       <c r="A46" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="85">
+      <c r="B46" s="98">
         <f>D30+D45</f>
         <v>4140000</v>
       </c>
-      <c r="C46" s="86"/>
-      <c r="D46" s="86"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="99"/>
       <c r="E46" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F46" s="106" t="e">
+      <c r="F46" s="111" t="e">
         <f>H32+H37+H45</f>
         <v>#REF!</v>
       </c>
-      <c r="G46" s="106"/>
-      <c r="H46" s="107"/>
+      <c r="G46" s="111"/>
+      <c r="H46" s="112"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="35"/>
@@ -3833,16 +3833,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="F46:H46"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="A2:H2"/>
@@ -3855,6 +3845,16 @@
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="F19:H19"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="F46:H46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
